--- a/Capital_Cost_Calculations.xlsx
+++ b/Capital_Cost_Calculations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Desktop\Research\Patrick_Antigua_Analysis\PyPSA work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Desktop\Research\Github_Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5043A8-3BBC-48B7-9333-34B16757805A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29094325-BE94-4370-899A-D2CF7BFD62D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{68642DC3-0BD7-4750-815F-83526B644E30}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{68642DC3-0BD7-4750-815F-83526B644E30}"/>
   </bookViews>
   <sheets>
     <sheet name="Capital Cost General Calcs" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="64">
   <si>
     <t>Solar PV</t>
   </si>
@@ -217,6 +217,18 @@
   </si>
   <si>
     <t>Hydrogen Storage (store)</t>
+  </si>
+  <si>
+    <t>Factor:</t>
+  </si>
+  <si>
+    <t>CSP Field - 'Generator'</t>
+  </si>
+  <si>
+    <t>CSP Storage - 'Store'</t>
+  </si>
+  <si>
+    <t>CSP Turbine - 'Link'</t>
   </si>
 </sst>
 </file>
@@ -224,7 +236,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -405,7 +417,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -436,7 +448,8 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -819,11 +832,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5937A1ED-6BB5-405D-80AA-481E5FC58725}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B14" sqref="B14"/>
+      <selection pane="topRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -911,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="14">
-        <v>1200</v>
+        <v>880</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -929,7 +942,7 @@
       <c r="I6" s="14"/>
       <c r="J6" s="24">
         <f>B6*H6</f>
-        <v>102.97262066479874</v>
+        <v>75.513255154185742</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1011,8 +1024,8 @@
         <v>1</v>
       </c>
       <c r="B13" s="14">
-        <f>4000*0.8</f>
-        <v>3200</v>
+        <f>4000*C23</f>
+        <v>4000</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -1033,11 +1046,11 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="12" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="B15" s="14">
-        <f>B13*0.85</f>
-        <v>2720</v>
+        <f>B13*(0.85-0.19)</f>
+        <v>2639.9999999999995</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
@@ -1055,7 +1068,7 @@
       <c r="I15" s="14"/>
       <c r="J15" s="24">
         <f>B15*H15</f>
-        <v>233.40460684021048</v>
+        <v>226.53976546255717</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1068,11 +1081,11 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="12" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="B17" s="14">
         <f>B13*0.15/12</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
@@ -1090,141 +1103,189 @@
       <c r="I17" s="14"/>
       <c r="J17" s="24">
         <f>B17*H17</f>
-        <v>3.4324206888266247</v>
+        <v>4.2905258610332808</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="J18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="14">
+        <f>B13*0.19</f>
+        <v>760</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G19" s="14">
+        <v>25</v>
+      </c>
+      <c r="H19" s="14">
+        <f>(F19*(F19+1)^G19)/((F19+1)^G19-1)</f>
+        <v>8.5810517220665614E-2</v>
+      </c>
+      <c r="I19" s="14"/>
+      <c r="J19" s="24">
+        <f>B19*H19</f>
+        <v>65.215993087705868</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="F20" s="7"/>
+      <c r="J20" s="25"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="17" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="21"/>
-      <c r="J23" t="s">
+      <c r="F26" s="21"/>
+      <c r="J26" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="12" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B27" s="14">
         <v>1000</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="15">
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="15">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G27" s="14">
         <v>25</v>
       </c>
-      <c r="H24" s="14">
-        <f>(F24*(F24+1)^G24)/((F24+1)^G24-1)</f>
+      <c r="H27" s="14">
+        <f>(F27*(F27+1)^G27)/((F27+1)^G27-1)</f>
         <v>8.5810517220665614E-2</v>
       </c>
-      <c r="I24" s="14"/>
-      <c r="J24" s="22">
-        <f>B24*H24</f>
+      <c r="I27" s="14"/>
+      <c r="J27" s="22">
+        <f>B27*H27</f>
         <v>85.810517220665616</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="21"/>
-      <c r="J25" t="s">
+      <c r="F28" s="21"/>
+      <c r="J28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="12" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B29" s="14">
         <v>500</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="15">
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="15">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G29" s="14">
         <v>25</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H29" s="14">
         <v>8.5810517220665614E-2</v>
       </c>
-      <c r="I26" s="14"/>
-      <c r="J26" s="22">
-        <f>B26*H26</f>
+      <c r="I29" s="14"/>
+      <c r="J29" s="22">
+        <f>B29*H29</f>
         <v>42.905258610332808</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" t="s">
         <v>55</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C30" t="s">
         <v>56</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D30" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="21"/>
-      <c r="J27" t="s">
+      <c r="F30" s="21"/>
+      <c r="J30" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="12" t="s">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B31" s="14">
         <v>1000</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C31" s="14">
         <v>30</v>
       </c>
-      <c r="D28" s="14">
-        <f>B28/C28</f>
+      <c r="D31" s="14">
+        <f>B31/C31</f>
         <v>33.333333333333336</v>
       </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="15">
+      <c r="E31" s="13"/>
+      <c r="F31" s="15">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G31" s="14">
         <v>25</v>
       </c>
-      <c r="H28" s="14">
-        <f>(F28*(F28+1)^G28)/((F28+1)^G28-1)</f>
+      <c r="H31" s="14">
+        <f>(F31*(F31+1)^G31)/((F31+1)^G31-1)</f>
         <v>8.5810517220665614E-2</v>
       </c>
-      <c r="I28" s="14"/>
-      <c r="J28" s="22">
-        <f>D28*H28</f>
+      <c r="I31" s="14"/>
+      <c r="J31" s="22">
+        <f>D31*H31</f>
         <v>2.8603505740221875</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="J29" s="1" t="s">
+    <row r="32" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="J32" s="1" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1238,7 +1299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59EBE74-EFDF-46A4-876C-8BCCF59317A4}">
   <dimension ref="A3:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
@@ -1270,86 +1331,86 @@
     <row r="3" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="4" spans="1:21" s="11" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="10"/>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="25" t="s">
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="25" t="s">
+      <c r="F4" s="27"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="26"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="25" t="s">
+      <c r="I4" s="27"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="26"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="25" t="s">
+      <c r="L4" s="27"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="O4" s="26"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="25" t="s">
+      <c r="O4" s="27"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="26"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="25" t="s">
+      <c r="R4" s="27"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="U4" s="27"/>
+      <c r="U4" s="28"/>
     </row>
     <row r="5" spans="1:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="29">
         <f>'Capital Cost General Calcs'!B4</f>
         <v>1800</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="28">
+      <c r="C5" s="30"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="29">
         <f>'Capital Cost General Calcs'!B6</f>
-        <v>1200</v>
-      </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="28">
+        <v>880</v>
+      </c>
+      <c r="F5" s="30"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="29">
         <f>'Capital Cost General Calcs'!B8</f>
         <v>1350</v>
       </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="28">
+      <c r="I5" s="30"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="29">
         <f>'Capital Cost General Calcs'!B10</f>
         <v>143</v>
       </c>
-      <c r="L5" s="29"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="28">
+      <c r="L5" s="30"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="29">
         <f>'Capital Cost General Calcs'!B13</f>
-        <v>3200</v>
-      </c>
-      <c r="O5" s="29"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="28">
+        <v>4000</v>
+      </c>
+      <c r="O5" s="30"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="29">
         <f>N5*O9</f>
-        <v>2720</v>
-      </c>
-      <c r="R5" s="29"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="28">
+        <v>3400</v>
+      </c>
+      <c r="R5" s="30"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="29">
         <f>N5*O10</f>
-        <v>480</v>
-      </c>
-      <c r="U5" s="30"/>
+        <v>600</v>
+      </c>
+      <c r="U5" s="31"/>
     </row>
     <row r="7" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
@@ -1407,7 +1468,7 @@
       </c>
       <c r="G9" s="8">
         <f t="shared" ref="G9:G15" si="0">E$5*F9</f>
-        <v>408.00000000000006</v>
+        <v>299.20000000000005</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>29</v>
@@ -1428,7 +1489,7 @@
       </c>
       <c r="P9" s="9">
         <f>N5*O9</f>
-        <v>2720</v>
+        <v>3400</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>38</v>
@@ -1438,7 +1499,7 @@
       </c>
       <c r="S9" s="8">
         <f>Q$5*R9</f>
-        <v>544</v>
+        <v>680</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.55000000000000004">
@@ -1450,7 +1511,7 @@
       </c>
       <c r="G10" s="8">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>30</v>
@@ -1471,7 +1532,7 @@
       </c>
       <c r="P10" s="9">
         <f>N5*O10</f>
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>41</v>
@@ -1481,7 +1542,7 @@
       </c>
       <c r="S10" s="8">
         <f>Q$5*R10</f>
-        <v>951.99999999999989</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.55000000000000004">
@@ -1493,7 +1554,7 @@
       </c>
       <c r="G11" s="8">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>52.8</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>31</v>
@@ -1514,7 +1575,7 @@
       </c>
       <c r="S11" s="8">
         <f>Q$5*R11</f>
-        <v>816</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.55000000000000004">
@@ -1526,7 +1587,7 @@
       </c>
       <c r="G12" s="8">
         <f t="shared" si="0"/>
-        <v>144</v>
+        <v>105.6</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>32</v>
@@ -1547,7 +1608,7 @@
       </c>
       <c r="S12" s="8">
         <f>Q$5*R12</f>
-        <v>408</v>
+        <v>510</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.55000000000000004">
@@ -1559,7 +1620,7 @@
       </c>
       <c r="G13" s="8">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>33</v>
@@ -1582,7 +1643,7 @@
       </c>
       <c r="G14" s="8">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>42</v>
@@ -1603,7 +1664,7 @@
       </c>
       <c r="G15" s="8">
         <f t="shared" si="0"/>
-        <v>264</v>
+        <v>193.6</v>
       </c>
       <c r="R15" t="s">
         <v>44</v>
@@ -1636,20 +1697,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="Q5:S5"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="T5:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
